--- a/ResultadoEleicoesDistritos/BEJA_BEJA.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_BEJA.xlsx
@@ -597,64 +597,64 @@
         <v>8517</v>
       </c>
       <c r="H2" t="n">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I2" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J2" t="n">
-        <v>3527</v>
+        <v>3495</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N2" t="n">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>414</v>
+      </c>
+      <c r="T2" t="n">
+        <v>669</v>
+      </c>
+      <c r="U2" t="n">
+        <v>38</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5466</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>385</v>
-      </c>
-      <c r="T2" t="n">
-        <v>623</v>
-      </c>
-      <c r="U2" t="n">
-        <v>52</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5360</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
       <c r="X2" t="n">
-        <v>5488</v>
+        <v>5430</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
